--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>再来一次</t>
+  </si>
+  <si>
+    <t>阵容</t>
+  </si>
+  <si>
+    <t>核心界面</t>
+  </si>
+  <si>
+    <t>孕育</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1063,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1173,6 +1182,28 @@
       </c>
       <c r="D9" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>20001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>20002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="9105"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>孕育</t>
+  </si>
+  <si>
+    <t>稀</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>阵容管理</t>
+  </si>
+  <si>
+    <t>级</t>
+  </si>
+  <si>
+    <t>Lv</t>
+  </si>
+  <si>
+    <t>阵</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1084,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1204,6 +1225,48 @@
       </c>
       <c r="D11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>30001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>30002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>30003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>游戏设置</t>
+  </si>
+  <si>
+    <t>画面</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1093,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1267,6 +1276,28 @@
       </c>
       <c r="D14" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>40001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>40002</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="12" customHeight="1"/>
